--- a/allTest_MDPCPorgJuly.xlsx
+++ b/allTest_MDPCPorgJuly.xlsx
@@ -722,7 +722,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -739,7 +739,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -756,7 +756,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -773,7 +773,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -790,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -807,7 +807,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -824,7 +824,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -852,7 +852,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -869,7 +869,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -886,7 +886,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -920,7 +920,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -937,7 +937,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -954,7 +954,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -971,7 +971,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -988,7 +988,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1005,7 +1005,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1022,7 +1022,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -1039,7 +1039,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1056,7 +1056,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1118,7 +1118,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -1130,7 +1130,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
@@ -1150,7 +1150,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1162,7 +1162,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
@@ -1182,7 +1182,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1194,7 +1194,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -1214,7 +1214,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1226,7 +1226,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -1246,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1258,7 +1258,7 @@
         <v>37</v>
       </c>
       <c r="G6" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
@@ -1278,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1290,7 +1290,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -1310,7 +1310,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1322,7 +1322,7 @@
         <v>37</v>
       </c>
       <c r="G8" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -1374,7 +1374,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -1394,7 +1394,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1406,7 +1406,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -1426,7 +1426,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1438,7 +1438,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
@@ -1458,7 +1458,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1470,7 +1470,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H13" t="s">
         <v>27</v>
@@ -1490,7 +1490,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -1502,7 +1502,7 @@
         <v>37</v>
       </c>
       <c r="G14" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
@@ -1522,7 +1522,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1534,7 +1534,7 @@
         <v>37</v>
       </c>
       <c r="G15" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H15" t="s">
         <v>27</v>
@@ -1554,7 +1554,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
@@ -1586,7 +1586,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1598,7 +1598,7 @@
         <v>37</v>
       </c>
       <c r="G17" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
@@ -1618,7 +1618,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1630,7 +1630,7 @@
         <v>37</v>
       </c>
       <c r="G18" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H18" t="s">
         <v>27</v>
@@ -1650,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1662,7 +1662,7 @@
         <v>37</v>
       </c>
       <c r="G19" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H19" t="s">
         <v>27</v>
@@ -1682,7 +1682,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -1694,7 +1694,7 @@
         <v>37</v>
       </c>
       <c r="G20" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H20" t="s">
         <v>27</v>
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1726,7 +1726,7 @@
         <v>37</v>
       </c>
       <c r="G21" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H21" t="s">
         <v>27</v>
@@ -1746,7 +1746,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1758,7 +1758,7 @@
         <v>37</v>
       </c>
       <c r="G22" s="2">
-        <v>44750</v>
+        <v>44755</v>
       </c>
       <c r="H22" t="s">
         <v>27</v>
